--- a/jpcore-r4/feature/swg1-「通常の文字列検索」に濁点・半濁点の処理を追記する/StructureDefinition-jp-medicationadministration.xlsx
+++ b/jpcore-r4/feature/swg1-「通常の文字列検索」に濁点・半濁点の処理を追記する/StructureDefinition-jp-medicationadministration.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2337" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2410" uniqueCount="473">
   <si>
     <t>Property</t>
   </si>
@@ -679,23 +679,17 @@
     <t>MedicationAdministration.medication[x]</t>
   </si>
   <si>
-    <t>What was administered　医薬品</t>
-  </si>
-  <si>
-    <t>Identifies the medication that was administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.
-投与された薬剤を識別する。既知の薬のリストから薬を識別するコード情報を設定する。</t>
-  </si>
-  <si>
-    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.
-【JP-CORE】
-ひとつのtext要素と、複数のcoding 要素を記述できる。処方オーダ時に選択または入力し、実際に処方箋に印字される文字列を必ずtext要素に格納した上で、それをコード化した情報を1個以上のcoding 要素に記述する。
-厚生労働省標準であるHOT9コード（販社指定が不要な場合にはHOT7コード）または広く流通しているYJコードを用いるか、一般名処方の場合には厚生労働省保険局一般名処方マスタのコードを使用して、Coding要素（コードsystemを識別するURI、医薬品のコード、そのコード表における医薬品の名称の3つからなる）で記述する。
--なお、上記のいずれの標準的コードも付番されていない医薬品や医療材料の場合には、薬機法の下で使用されているGS1標準の識別コードであるGTIN(Global Trade Item Number)の調剤包装単位（最少包装単位、個別包装単位）14桁を使用する。
--ひとつの処方薬、医療材料を複数のコード体系のコードで記述してもよく、その場合にcoding 要素を繰り返して記述する。-ただし、ひとつの処方薬を複数のコードで繰り返し記述する場合には、それらのコードが指し示す処方薬、医療材料は当然同一でなければならない。-また、処方を発行した医療機関内でのデータ利用のために、医療機関固有コード体系によるコード（ハウスコード、ローカルコード）の記述を含めてもよいが、その場合でも上述したいずれかの標準コードを同時に記述することが必要である。</t>
+    <t>CodeableConcept
+Reference</t>
+  </si>
+  <si>
+    <t>What was administered</t>
+  </si>
+  <si>
+    <t>Identifies the medication that was administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.</t>
+  </si>
+  <si>
+    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.</t>
   </si>
   <si>
     <t>Codes identifying substance or product that can be administered.</t>
@@ -704,6 +698,13 @@
     <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>Event.code</t>
   </si>
   <si>
@@ -716,14 +717,19 @@
     <t>RXA-5-Administered Code</t>
   </si>
   <si>
+    <t>medicationCodeableConcept</t>
+  </si>
+  <si>
+    <t>処方する製剤を表すコード。</t>
+  </si>
+  <si>
     <t>MedicationAdministration.medication[x].id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing 要素間参照用の一意のID</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.
-リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない任意の文字列値にすることができる。</t>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -780,12 +786,6 @@
     <t>MedicationAdministration.medication[x].coding.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
     <t>MedicationAdministration.medication[x].coding.extension</t>
   </si>
   <si>
@@ -926,6 +926,13 @@
   </si>
   <si>
     <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>medicationReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Medication)
+</t>
   </si>
   <si>
     <t>MedicationAdministration.subject</t>
@@ -1101,8 +1108,8 @@
     <t>MedicationAdministration.effective[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime
-</t>
+    <t>dateTime
+Period</t>
   </si>
   <si>
     <t>Start and end time of administration　開始時間と終了時間</t>
@@ -1838,7 +1845,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN64"/>
+  <dimension ref="A1:AN66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1848,7 +1855,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="57.0859375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="19.6640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="27.47265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -4190,16 +4197,16 @@
         <v>87</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4228,25 +4235,23 @@
         <v>197</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="AB21" s="2"/>
       <c r="AC21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>77</v>
+        <v>217</v>
       </c>
       <c r="AE21" t="s" s="2">
         <v>209</v>
@@ -4264,16 +4269,16 @@
         <v>98</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>77</v>
@@ -4281,9 +4286,11 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="B22" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="C22" t="s" s="2">
         <v>77</v>
       </c>
@@ -4301,18 +4308,20 @@
         <v>77</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>88</v>
+        <v>193</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M22" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>77</v>
@@ -4337,13 +4346,13 @@
         <v>77</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>77</v>
+        <v>223</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>77</v>
+        <v>215</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>77</v>
@@ -4361,10 +4370,10 @@
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>86</v>
@@ -4373,19 +4382,19 @@
         <v>77</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>77</v>
+        <v>218</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>77</v>
+        <v>220</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>77</v>
+        <v>221</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
@@ -4397,14 +4406,14 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>77</v>
@@ -4416,7 +4425,7 @@
         <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>225</v>
@@ -4424,9 +4433,7 @@
       <c r="L23" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M23" t="s" s="2">
-        <v>159</v>
-      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>77</v>
@@ -4463,37 +4470,37 @@
         <v>77</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE23" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="AC23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AE23" t="s" s="2">
+      <c r="AF23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>77</v>
@@ -4511,11 +4518,11 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>79</v>
@@ -4527,23 +4534,21 @@
         <v>77</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="L24" t="s" s="2">
-        <v>232</v>
-      </c>
       <c r="M24" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>77</v>
       </c>
@@ -4579,19 +4584,19 @@
         <v>77</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -4603,19 +4608,19 @@
         <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>237</v>
+        <v>77</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>77</v>
@@ -4623,7 +4628,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4631,10 +4636,10 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>77</v>
@@ -4643,19 +4648,23 @@
         <v>77</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>88</v>
+        <v>235</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="N25" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L25" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>77</v>
       </c>
@@ -4703,31 +4712,31 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>77</v>
+        <v>242</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>77</v>
@@ -4735,18 +4744,18 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>77</v>
@@ -4758,7 +4767,7 @@
         <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>225</v>
@@ -4766,9 +4775,7 @@
       <c r="L26" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M26" t="s" s="2">
-        <v>159</v>
-      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>77</v>
@@ -4805,37 +4812,37 @@
         <v>77</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE26" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="AC26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AE26" t="s" s="2">
+      <c r="AF26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
@@ -4849,18 +4856,18 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>77</v>
@@ -4869,23 +4876,21 @@
         <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>77</v>
       </c>
@@ -4921,43 +4926,43 @@
         <v>77</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>249</v>
+        <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>77</v>
@@ -4965,7 +4970,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4973,7 +4978,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>86</v>
@@ -4988,18 +4993,20 @@
         <v>87</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>77</v>
       </c>
@@ -5047,7 +5054,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5065,13 +5072,13 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -5079,7 +5086,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5087,7 +5094,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>86</v>
@@ -5102,18 +5109,18 @@
         <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="N29" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>77</v>
       </c>
@@ -5161,7 +5168,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5179,13 +5186,13 @@
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5193,7 +5200,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5216,17 +5223,17 @@
         <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>77</v>
@@ -5275,7 +5282,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5293,13 +5300,13 @@
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5307,7 +5314,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5315,7 +5322,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>86</v>
@@ -5330,19 +5337,17 @@
         <v>87</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>272</v>
+        <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>77</v>
@@ -5391,7 +5396,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5409,13 +5414,13 @@
         <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5423,7 +5428,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5446,19 +5451,19 @@
         <v>87</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>88</v>
+        <v>275</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>77</v>
@@ -5507,7 +5512,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5525,13 +5530,13 @@
         <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5539,7 +5544,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5547,7 +5552,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>86</v>
@@ -5562,18 +5567,20 @@
         <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>289</v>
+        <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>77</v>
       </c>
@@ -5624,7 +5631,7 @@
         <v>288</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>86</v>
@@ -5636,16 +5643,16 @@
         <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>293</v>
+        <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>295</v>
+        <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5653,9 +5660,11 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="B34" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="C34" t="s" s="2">
         <v>77</v>
       </c>
@@ -5673,18 +5682,20 @@
         <v>77</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>88</v>
+        <v>292</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>77</v>
@@ -5733,10 +5744,10 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>86</v>
@@ -5745,19 +5756,19 @@
         <v>77</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>77</v>
+        <v>218</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>77</v>
+        <v>220</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>77</v>
+        <v>221</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -5765,18 +5776,18 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>77</v>
@@ -5785,19 +5796,19 @@
         <v>77</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>131</v>
+        <v>294</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>225</v>
+        <v>295</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>226</v>
+        <v>296</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>159</v>
+        <v>297</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5835,43 +5846,43 @@
         <v>77</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>227</v>
+        <v>77</v>
       </c>
       <c r="AC35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>228</v>
+        <v>293</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>77</v>
+        <v>298</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>223</v>
+        <v>299</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>77</v>
+        <v>300</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>77</v>
+        <v>301</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -5879,7 +5890,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5899,20 +5910,18 @@
         <v>77</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>300</v>
+        <v>225</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>302</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>77</v>
@@ -5961,7 +5970,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>303</v>
+        <v>227</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -5970,16 +5979,16 @@
         <v>86</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>304</v>
+        <v>77</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>129</v>
+        <v>228</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
@@ -5993,18 +6002,18 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>77</v>
@@ -6013,19 +6022,19 @@
         <v>77</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>306</v>
+        <v>230</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>307</v>
+        <v>231</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>308</v>
+        <v>159</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6051,49 +6060,49 @@
         <v>77</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>309</v>
+        <v>77</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>310</v>
+        <v>77</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>311</v>
+        <v>77</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="AC37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>312</v>
+        <v>233</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>129</v>
+        <v>228</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
@@ -6107,7 +6116,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6130,16 +6139,16 @@
         <v>87</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>163</v>
+        <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6189,7 +6198,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6198,7 +6207,7 @@
         <v>86</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>77</v>
+        <v>309</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>98</v>
@@ -6207,7 +6216,7 @@
         <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>318</v>
+        <v>129</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
@@ -6221,7 +6230,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6244,16 +6253,16 @@
         <v>87</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6279,13 +6288,13 @@
         <v>77</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>77</v>
+        <v>314</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>77</v>
+        <v>315</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>77</v>
+        <v>316</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>77</v>
@@ -6303,7 +6312,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6335,7 +6344,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6355,19 +6364,19 @@
         <v>77</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>325</v>
+        <v>163</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>292</v>
+        <v>321</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6417,7 +6426,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6432,16 +6441,16 @@
         <v>98</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>328</v>
+        <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>330</v>
+        <v>77</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>331</v>
+        <v>77</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>77</v>
@@ -6449,7 +6458,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6460,7 +6469,7 @@
         <v>78</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>77</v>
@@ -6469,19 +6478,19 @@
         <v>77</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>333</v>
+        <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6531,13 +6540,13 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>77</v>
@@ -6549,10 +6558,10 @@
         <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>336</v>
+        <v>129</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>330</v>
+        <v>77</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>77</v>
@@ -6563,7 +6572,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6571,7 +6580,7 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>86</v>
@@ -6583,19 +6592,19 @@
         <v>77</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>341</v>
+        <v>297</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6645,10 +6654,10 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>86</v>
@@ -6660,16 +6669,16 @@
         <v>98</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>77</v>
@@ -6677,7 +6686,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6697,18 +6706,20 @@
         <v>77</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="M43" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>77</v>
@@ -6757,7 +6768,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -6772,16 +6783,16 @@
         <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>350</v>
+        <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>353</v>
+        <v>77</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>77</v>
@@ -6789,7 +6800,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6797,7 +6808,7 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>86</v>
@@ -6809,18 +6820,20 @@
         <v>77</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>88</v>
+        <v>343</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>239</v>
+        <v>344</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>77</v>
@@ -6869,10 +6882,10 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>222</v>
+        <v>342</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>86</v>
@@ -6881,19 +6894,19 @@
         <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>77</v>
+        <v>347</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>223</v>
+        <v>348</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>77</v>
+        <v>349</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>77</v>
+        <v>350</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>77</v>
@@ -6901,11 +6914,11 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6921,20 +6934,18 @@
         <v>77</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>131</v>
+        <v>352</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>225</v>
+        <v>353</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>77</v>
@@ -6983,7 +6994,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>228</v>
+        <v>351</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -6995,19 +7006,19 @@
         <v>77</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>77</v>
+        <v>355</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>223</v>
+        <v>356</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>77</v>
+        <v>357</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>77</v>
+        <v>358</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
@@ -7015,43 +7026,39 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>357</v>
+        <v>77</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>358</v>
+        <v>225</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>77</v>
       </c>
@@ -7099,25 +7106,25 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>360</v>
+        <v>227</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>129</v>
+        <v>228</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
@@ -7131,18 +7138,18 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>77</v>
@@ -7154,15 +7161,17 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>193</v>
+        <v>131</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>362</v>
+        <v>230</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>77</v>
@@ -7187,13 +7196,13 @@
         <v>77</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>364</v>
+        <v>77</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>365</v>
+        <v>77</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>77</v>
@@ -7211,25 +7220,25 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>361</v>
+        <v>233</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>366</v>
+        <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>367</v>
+        <v>228</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
@@ -7243,39 +7252,43 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>77</v>
+        <v>362</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>369</v>
+        <v>131</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+        <v>364</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>77</v>
       </c>
@@ -7323,25 +7336,25 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>372</v>
+        <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>373</v>
+        <v>129</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
@@ -7355,7 +7368,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7366,7 +7379,7 @@
         <v>78</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>77</v>
@@ -7381,10 +7394,10 @@
         <v>193</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7414,10 +7427,10 @@
         <v>197</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>77</v>
@@ -7435,13 +7448,13 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>77</v>
@@ -7450,16 +7463,16 @@
         <v>98</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>381</v>
+        <v>77</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>77</v>
@@ -7467,7 +7480,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7475,10 +7488,10 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>77</v>
@@ -7487,20 +7500,18 @@
         <v>77</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>386</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>77</v>
@@ -7549,13 +7560,13 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>77</v>
@@ -7564,24 +7575,24 @@
         <v>98</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>389</v>
+        <v>77</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>390</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7592,7 +7603,7 @@
         <v>78</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>77</v>
@@ -7604,20 +7615,16 @@
         <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>392</v>
+        <v>193</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>396</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>77</v>
       </c>
@@ -7641,13 +7648,13 @@
         <v>77</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>77</v>
+        <v>382</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>77</v>
+        <v>383</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>77</v>
@@ -7665,13 +7672,13 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>77</v>
@@ -7680,16 +7687,16 @@
         <v>98</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>77</v>
@@ -7697,7 +7704,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7720,16 +7727,16 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>292</v>
+        <v>391</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7779,7 +7786,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -7794,24 +7801,24 @@
         <v>98</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>77</v>
+        <v>392</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>77</v>
+        <v>394</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>405</v>
+        <v>77</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>77</v>
+        <v>395</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7822,7 +7829,7 @@
         <v>78</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>77</v>
@@ -7834,18 +7841,20 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>401</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>77</v>
       </c>
@@ -7893,13 +7902,13 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>77</v>
@@ -7908,16 +7917,16 @@
         <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>77</v>
+        <v>404</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>77</v>
@@ -7925,7 +7934,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7936,7 +7945,7 @@
         <v>78</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>77</v>
@@ -7948,15 +7957,17 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>347</v>
+        <v>406</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>408</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>77</v>
@@ -8005,31 +8016,31 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>416</v>
+        <v>98</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>77</v>
+        <v>410</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>77</v>
@@ -8037,7 +8048,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8048,7 +8059,7 @@
         <v>78</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>77</v>
@@ -8060,15 +8071,17 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>88</v>
+        <v>412</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>239</v>
+        <v>413</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M55" s="2"/>
+        <v>414</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>415</v>
+      </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>77</v>
@@ -8117,25 +8130,25 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>222</v>
+        <v>411</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>77</v>
+        <v>416</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>223</v>
+        <v>417</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
@@ -8149,18 +8162,18 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>77</v>
@@ -8172,17 +8185,15 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>131</v>
+        <v>352</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>225</v>
+        <v>419</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>77</v>
@@ -8231,25 +8242,25 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>228</v>
+        <v>418</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>137</v>
+        <v>421</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>223</v>
+        <v>422</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
@@ -8263,43 +8274,39 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>357</v>
+        <v>77</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>358</v>
+        <v>225</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>77</v>
       </c>
@@ -8347,25 +8354,25 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>360</v>
+        <v>227</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>129</v>
+        <v>228</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
@@ -8379,18 +8386,18 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>77</v>
@@ -8402,15 +8409,17 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>422</v>
+        <v>230</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>77</v>
@@ -8459,25 +8468,25 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>421</v>
+        <v>233</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>424</v>
+        <v>228</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8495,37 +8504,39 @@
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>77</v>
+        <v>362</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>193</v>
+        <v>131</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>426</v>
+        <v>363</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>427</v>
+        <v>364</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>77</v>
       </c>
@@ -8549,13 +8560,13 @@
         <v>77</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>429</v>
+        <v>77</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>430</v>
+        <v>77</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>77</v>
@@ -8573,31 +8584,31 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>425</v>
+        <v>365</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>431</v>
+        <v>129</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>432</v>
+        <v>77</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>77</v>
@@ -8605,7 +8616,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8628,17 +8639,15 @@
         <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>193</v>
+        <v>88</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>77</v>
@@ -8663,13 +8672,13 @@
         <v>77</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>436</v>
+        <v>77</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>437</v>
+        <v>77</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>77</v>
@@ -8687,7 +8696,7 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -8705,13 +8714,13 @@
         <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>439</v>
+        <v>77</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>77</v>
@@ -8719,7 +8728,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8745,13 +8754,13 @@
         <v>193</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8780,10 +8789,10 @@
         <v>197</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>77</v>
@@ -8801,7 +8810,7 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -8819,13 +8828,13 @@
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>77</v>
@@ -8833,7 +8842,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8856,16 +8865,16 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>449</v>
+        <v>193</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>452</v>
+        <v>196</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -8891,13 +8900,13 @@
         <v>77</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>77</v>
+        <v>441</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>77</v>
+        <v>442</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>77</v>
@@ -8915,7 +8924,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -8933,13 +8942,13 @@
         <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>77</v>
@@ -8947,7 +8956,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8970,16 +8979,16 @@
         <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>456</v>
+        <v>193</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9005,13 +9014,13 @@
         <v>77</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>77</v>
+        <v>449</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>77</v>
+        <v>450</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>77</v>
@@ -9029,7 +9038,7 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9047,13 +9056,13 @@
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>77</v>
@@ -9061,7 +9070,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9072,7 +9081,7 @@
         <v>78</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>77</v>
@@ -9084,16 +9093,16 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9143,13 +9152,13 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>77</v>
@@ -9161,15 +9170,243 @@
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="AL64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN64" t="s" s="2">
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN66" t="s" s="2">
         <v>77</v>
       </c>
     </row>
